--- a/analysis/NC2022-v(i)-points.xlsx
+++ b/analysis/NC2022-v(i)-points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10612"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35D59E4-3879-6240-8F48-7F1CAF7862BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E0D919-660C-5A45-BC04-232BC4D5AA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="4480" windowWidth="27300" windowHeight="16940" xr2:uid="{6D7723A8-E5FA-E74B-BBB7-ECF2C9D00DFD}"/>
+    <workbookView xWindow="1500" yWindow="1060" windowWidth="27300" windowHeight="16940" xr2:uid="{6D7723A8-E5FA-E74B-BBB7-ECF2C9D00DFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,8 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -132,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -144,7 +143,27 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -153,13 +172,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +504,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,17 +515,17 @@
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" customWidth="1"/>
-    <col min="10" max="12" width="7.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -538,532 +558,532 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.54930699999999999</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>0.53684100000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.55055100000000001</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.54400000000000004</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.54363499999999998</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.56405000000000005</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>0.55621100000000001</v>
       </c>
-      <c r="J2" s="5">
-        <f>AVERAGE(B2:H2)</f>
-        <v>0.54922785714285716</v>
-      </c>
-      <c r="K2" s="5">
-        <f>STDEV(B2:H2)/SQRT(COUNT(B2:H2))</f>
-        <v>3.3885730416361734E-3</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="J2" s="2">
+        <f>AVERAGE(C2:H2)</f>
+        <v>0.54921466666666674</v>
+      </c>
+      <c r="K2" s="2">
+        <f>STDEV(C2:H2)/SQRT(COUNT(C2:H2))</f>
+        <v>4.0093833163939094E-3</v>
+      </c>
+      <c r="L2" s="2">
         <f>K2/J2</f>
-        <v>6.1697035166131189E-3</v>
+        <v>7.3002116653729365E-3</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.63153899999999996</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>0.64605800000000002</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.61645000000000005</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.62189700000000003</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.57678600000000002</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.67297099999999999</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.64183100000000004</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J15" si="0">AVERAGE(B3:H3)</f>
-        <v>0.62964742857142864</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K15" si="1">STDEV(B3:H3)/SQRT(COUNT(B3:H3))</f>
-        <v>1.126184883505694E-2</v>
-      </c>
-      <c r="L3" s="5">
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J15" si="0">AVERAGE(C3:H3)</f>
+        <v>0.6293321666666668</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K15" si="1">STDEV(C3:H3)/SQRT(COUNT(C3:H3))</f>
+        <v>1.3319977055577498E-2</v>
+      </c>
+      <c r="L3" s="2">
         <f t="shared" ref="L3:L15" si="2">K3/J3</f>
-        <v>1.7885960180300125E-2</v>
+        <v>2.1165257015430105E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.37639600000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>0.37148799999999998</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.36530099999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.37653199999999998</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.36200199999999999</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>0.39702799999999999</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0.38201200000000002</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.37582271428571434</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3896835373205597E-3</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1680197525217595E-2</v>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.37572716666666661</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1927130764605573E-3</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3820435510502677E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0.677149</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>0.677508</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.677068</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0.67195400000000005</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.65303999999999995</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>0.70030499999999996</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>0.68040199999999995</v>
       </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.6767751428571428</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="1"/>
-        <v>5.2421626509011887E-3</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="2"/>
-        <v>7.7457966744616854E-3</v>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.67671283333333332</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2021723206022276E-3</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
+        <v>9.1651465955680782E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.39757700000000001</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>0.39225300000000002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.38274000000000002</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.398754</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.37277199999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.43243399999999999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.39975300000000002</v>
       </c>
-      <c r="J6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.39661185714285713</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="1"/>
-        <v>7.034574172067056E-3</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7736671371207255E-2</v>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.39645100000000005</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>8.3212440335965771E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="2"/>
+        <v>2.098933798526571E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0.56432300000000002</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>0.56276099999999996</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.55420100000000005</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0.56275600000000003</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.53812000000000004</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>0.59578799999999998</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>0.56822300000000003</v>
       </c>
-      <c r="J7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.56373885714285721</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="1"/>
-        <v>6.5407424415791461E-3</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1602433216558735E-2</v>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56364150000000002</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7382534581992872E-3</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3729034249960812E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0.44512000000000002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>0.43554100000000001</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.43303999999999998</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.43970599999999999</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.42948599999999998</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.47431600000000002</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>0.45327400000000001</v>
       </c>
-      <c r="J8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.44435471428571427</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="1"/>
-        <v>5.8272992384951405E-3</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="2"/>
-        <v>1.3114070923861659E-2</v>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44422716666666667</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>6.8933016202526523E-3</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5517514770601945E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0.33267400000000003</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>0.32769999999999999</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.31237100000000001</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.33135999999999999</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.31006800000000001</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>0.36152899999999999</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>0.343858</v>
       </c>
-      <c r="J9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.33136571428571432</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="1"/>
-        <v>6.717819085991286E-3</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="2"/>
-        <v>2.0273126628299762E-2</v>
+      <c r="J9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.33114766666666667</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>7.9444425802639579E-3</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3990634330094303E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0.46771200000000002</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>0.45956799999999998</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.45733200000000002</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0.46250599999999997</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.45235199999999998</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>0.49676700000000001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>0.472889</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.46701799999999999</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.5735858210636665E-3</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1934413279710133E-2</v>
+      <c r="J10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46690233333333331</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5933354364674825E-3</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4121444605761554E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>0.30952200000000002</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>0.300178</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.29241899999999998</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.30531999999999998</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.29939500000000002</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>0.333449</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>0.32009900000000002</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.30862599999999996</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="1"/>
-        <v>5.2977767664055715E-3</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7165685219020992E-2</v>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.30847666666666668</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2659231970325921E-3</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>2.031247051759482E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>0.450158</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>0.44851600000000003</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.420572</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0.45153599999999999</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.43482500000000002</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>0.479686</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>0.456403</v>
       </c>
-      <c r="J12" s="5">
-        <f t="shared" si="0"/>
-        <v>0.4488137142857142</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="1"/>
-        <v>6.9235285757174069E-3</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="2"/>
-        <v>1.5426285684554411E-2</v>
+      <c r="J12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44858966666666666</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>8.1877390557127828E-3</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8252179361493946E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>0.64398100000000003</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>0.65298500000000004</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.62884200000000001</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>0.64115100000000003</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.61014999999999997</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>0.67162900000000003</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>0.650926</v>
       </c>
-      <c r="J13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.64280914285714286</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="1"/>
-        <v>7.3449674751413594E-3</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1426358129404665E-2</v>
+      <c r="J13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.64261383333333333</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>8.6876096805226736E-3</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3519176260894904E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>0.50668400000000002</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>0.50862099999999999</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.487788</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>0.50157099999999999</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0.47409099999999998</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>0.54017999999999999</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>0.51751899999999995</v>
       </c>
-      <c r="J14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.50520771428571432</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="1"/>
-        <v>7.9782151414672566E-3</v>
-      </c>
-      <c r="L14" s="5">
-        <f t="shared" si="2"/>
-        <v>1.57919503520393E-2</v>
+      <c r="J14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50496166666666664</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>9.435461217014128E-3</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8685499989136062E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>0.56353900000000001</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>0.583229</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.55118699999999998</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>0.55614699999999995</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0.51078400000000002</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>0.59753900000000004</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>0.56935800000000003</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.56168328571428572</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0401184371009292E-2</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="2"/>
-        <v>1.851788122515028E-2</v>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56137399999999993</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.230140520970403E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1913029833415924E-2</v>
       </c>
     </row>
   </sheetData>
